--- a/input_scaling_exponents.xlsx
+++ b/input_scaling_exponents.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rstew\Dropbox (MIT)\CostModel\Code_v3\uncertainty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rstew\Documents\GitHub\TIMCAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236962F2-8633-4210-88AA-284B863E44A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F3F751-9BA7-4CEE-B62E-7C7134A79332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,6 +82,205 @@
           </rPr>
           <t xml:space="preserve">
 Max means the 0.975 quantile of the distribution if not normally distributed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{9A41941D-B0BE-4029-9C7E-E51784509CF0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Robb Stewart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+These are scaling factors on the modularization assumptions set in the plant input file. 
+"Offsite work mult" is a mutliplier on the fraction of work moved from the site to a factory
+"Offsite efficiency mult" is a mutliplier on the efficiency gain in a factory
+"Factor cost mult" is a mutliplier on the cost of the factory
+Transportation cost mult" is a mutliplier on the cost of transporting the module</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{ED4ECD54-18CD-4A9A-8367-3156BB04ED95}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Robb Stewart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+These are cost reductions from passive safety systems that apply to certain accounts.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{FC1D6167-9490-44C7-A6E9-8BF2024A59A1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Robb Stewart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+These are cost reductions due to passive safety systems that apply to electrical equipment</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{6D2519E6-7CC9-4791-953E-6077710D4B57}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Robb Stewart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+These are cost reductions that apply for integral PWRs</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A32" authorId="0" shapeId="0" xr:uid="{A19039CC-9C0A-4509-B8DA-8D3534EC7FF6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Robb Stewart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If an RPV is thin enough, EPRI is developing e-beam welding and other technolog that can lower the cost.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{B2B5992F-00CB-4EC5-A261-3D49CEA9D696}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Robb Stewart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+These are cost escalations if a containment liner is upgraded to a standalone steel containment</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A37" authorId="0" shapeId="0" xr:uid="{3E742D12-8437-447A-ACA3-8EAD6BE43DC6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Robb Stewart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+"-exponent" indicates the recommend value and the distribution and the parameters of that distribution for the cost scaling exponent (for power law relations)
+"-plant power costs" change the exponent for the costs that scale with the plant power
+"-cost" are uniform multpliers for costs (pool surface area cost scaler for example)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A67" authorId="0" shapeId="0" xr:uid="{6F2EF661-8549-4C1F-B4DB-8BC285200A5F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Robb Stewart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+These are multipliers on the input parameters (mass, surface area, volume, etc.) within each account. They are grouped by account to capture the correlation effect</t>
         </r>
       </text>
     </comment>
@@ -3031,20 +3230,20 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3121,7 +3320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -3171,7 +3370,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="15" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>25</v>
       </c>
@@ -3215,7 +3414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="15" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>25</v>
       </c>
@@ -3259,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="15" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>25</v>
       </c>
@@ -3303,7 +3502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="15" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>25</v>
       </c>
@@ -3347,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="15" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>25</v>
       </c>
@@ -3391,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="15" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>25</v>
       </c>
@@ -3438,7 +3637,7 @@
         <v>71000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -3491,7 +3690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -3544,7 +3743,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -3597,7 +3796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -3644,7 +3843,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -3688,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3738,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -3785,7 +3984,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -3829,7 +4028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -3873,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -3917,7 +4116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -3961,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3984,7 +4183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>576</v>
       </c>
@@ -4037,7 +4236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>576</v>
       </c>
@@ -4084,7 +4283,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>576</v>
       </c>
@@ -4128,7 +4327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -4181,7 +4380,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -4234,7 +4433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -4281,7 +4480,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -4325,7 +4524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -4375,7 +4574,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -4419,7 +4618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -4463,7 +4662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -4507,7 +4706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -4551,7 +4750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -4598,7 +4797,7 @@
         <v>25980</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -4642,7 +4841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -4686,7 +4885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -4730,7 +4929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -4777,7 +4976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -4821,7 +5020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -4874,7 +5073,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -4921,7 +5120,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -4965,7 +5164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -5009,7 +5208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -5053,7 +5252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -5097,7 +5296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -5141,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -5185,7 +5384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -5229,7 +5428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -5273,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -5317,7 +5516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -5364,7 +5563,7 @@
         <v>88745</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -5408,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -5452,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -5496,7 +5695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -5540,7 +5739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -5584,7 +5783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -5628,7 +5827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -5681,7 +5880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -5734,7 +5933,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -5781,7 +5980,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -5825,7 +6024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>112</v>
       </c>
@@ -5875,7 +6074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -5919,7 +6118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -5963,7 +6162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -6007,7 +6206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>112</v>
       </c>
@@ -6051,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>112</v>
       </c>
@@ -6095,7 +6294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -6139,7 +6338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>112</v>
       </c>
@@ -6186,7 +6385,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>112</v>
       </c>
@@ -6230,7 +6429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -6274,7 +6473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>128</v>
       </c>
@@ -6327,7 +6526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>128</v>
       </c>
@@ -6380,7 +6579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>128</v>
       </c>
@@ -6427,7 +6626,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>128</v>
       </c>
@@ -6471,7 +6670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>128</v>
       </c>
@@ -6515,7 +6714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>128</v>
       </c>
@@ -6559,7 +6758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>128</v>
       </c>
@@ -6603,7 +6802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>128</v>
       </c>
@@ -6650,7 +6849,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>128</v>
       </c>
@@ -6694,7 +6893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>128</v>
       </c>
@@ -6738,7 +6937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>128</v>
       </c>
@@ -6788,7 +6987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>142</v>
       </c>
@@ -6841,7 +7040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>142</v>
       </c>
@@ -6894,7 +7093,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>142</v>
       </c>
@@ -6941,7 +7140,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>142</v>
       </c>
@@ -6985,7 +7184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>142</v>
       </c>
@@ -7029,7 +7228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>142</v>
       </c>
@@ -7073,7 +7272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>142</v>
       </c>
@@ -7117,7 +7316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>142</v>
       </c>
@@ -7161,7 +7360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>142</v>
       </c>
@@ -7205,7 +7404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>142</v>
       </c>
@@ -7249,7 +7448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>142</v>
       </c>
@@ -7293,7 +7492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>142</v>
       </c>
@@ -7337,7 +7536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>142</v>
       </c>
@@ -7381,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>142</v>
       </c>
@@ -7431,7 +7630,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>142</v>
       </c>
@@ -7475,7 +7674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>142</v>
       </c>
@@ -7519,7 +7718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>142</v>
       </c>
@@ -7563,7 +7762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>142</v>
       </c>
@@ -7607,7 +7806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>161</v>
       </c>
@@ -7660,7 +7859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>161</v>
       </c>
@@ -7713,7 +7912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>161</v>
       </c>
@@ -7760,7 +7959,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>161</v>
       </c>
@@ -7804,7 +8003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>161</v>
       </c>
@@ -7854,7 +8053,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>161</v>
       </c>
@@ -7898,7 +8097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>161</v>
       </c>
@@ -7942,7 +8141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>161</v>
       </c>
@@ -7986,7 +8185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>161</v>
       </c>
@@ -8030,7 +8229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>161</v>
       </c>
@@ -8074,7 +8273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>161</v>
       </c>
@@ -8118,7 +8317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>161</v>
       </c>
@@ -8165,7 +8364,7 @@
         <v>70240</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>161</v>
       </c>
@@ -8209,7 +8408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>161</v>
       </c>
@@ -8253,7 +8452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>161</v>
       </c>
@@ -8297,7 +8496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>177</v>
       </c>
@@ -8344,7 +8543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>179</v>
       </c>
@@ -8397,7 +8596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>179</v>
       </c>
@@ -8450,7 +8649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>179</v>
       </c>
@@ -8497,7 +8696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>179</v>
       </c>
@@ -8541,7 +8740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>179</v>
       </c>
@@ -8585,7 +8784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>179</v>
       </c>
@@ -8629,7 +8828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>179</v>
       </c>
@@ -8673,7 +8872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>179</v>
       </c>
@@ -8717,7 +8916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>179</v>
       </c>
@@ -8764,7 +8963,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>179</v>
       </c>
@@ -8808,7 +9007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>190</v>
       </c>
@@ -8855,7 +9054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>192</v>
       </c>
@@ -8899,7 +9098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>194</v>
       </c>
@@ -8955,7 +9154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>196</v>
       </c>
@@ -9008,7 +9207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>196</v>
       </c>
@@ -9061,7 +9260,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>196</v>
       </c>
@@ -9108,7 +9307,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>196</v>
       </c>
@@ -9152,7 +9351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>196</v>
       </c>
@@ -9196,7 +9395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>196</v>
       </c>
@@ -9240,7 +9439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>196</v>
       </c>
@@ -9284,7 +9483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>196</v>
       </c>
@@ -9328,7 +9527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>196</v>
       </c>
@@ -9375,7 +9574,7 @@
         <v>4860</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>196</v>
       </c>
@@ -9419,7 +9618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>207</v>
       </c>
@@ -9466,7 +9665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>209</v>
       </c>
@@ -9510,7 +9709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>211</v>
       </c>
@@ -9560,7 +9759,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>213</v>
       </c>
@@ -9616,7 +9815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>215</v>
       </c>
@@ -9660,7 +9859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>215</v>
       </c>
@@ -9713,7 +9912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>215</v>
       </c>
@@ -9766,7 +9965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>215</v>
       </c>
@@ -9813,7 +10012,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>215</v>
       </c>
@@ -9857,7 +10056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>215</v>
       </c>
@@ -9901,7 +10100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>215</v>
       </c>
@@ -9945,7 +10144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>215</v>
       </c>
@@ -9989,7 +10188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>215</v>
       </c>
@@ -10033,7 +10232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>215</v>
       </c>
@@ -10077,7 +10276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>227</v>
       </c>
@@ -10112,7 +10311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>229</v>
       </c>
@@ -10162,7 +10361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>229</v>
       </c>
@@ -10206,7 +10405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>229</v>
       </c>
@@ -10250,7 +10449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>239</v>
       </c>
@@ -10300,7 +10499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>239</v>
       </c>
@@ -10350,7 +10549,7 @@
         <v>151650</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>239</v>
       </c>
@@ -10400,7 +10599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>239</v>
       </c>
@@ -10450,7 +10649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>252</v>
       </c>
@@ -10488,7 +10687,7 @@
         <v>60280</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>252</v>
       </c>
@@ -10529,7 +10728,7 @@
         <v>62660</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>252</v>
       </c>
@@ -10579,7 +10778,7 @@
         <v>120820</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>252</v>
       </c>
@@ -10626,7 +10825,7 @@
         <v>13400</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>262</v>
       </c>
@@ -10676,7 +10875,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>262</v>
       </c>
@@ -10723,7 +10922,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>262</v>
       </c>
@@ -10761,7 +10960,7 @@
         <v>24550</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>270</v>
       </c>
@@ -10811,7 +11010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>270</v>
       </c>
@@ -10849,7 +11048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>270</v>
       </c>
@@ -10887,7 +11086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>270</v>
       </c>
@@ -10937,7 +11136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>270</v>
       </c>
@@ -10975,7 +11174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>270</v>
       </c>
@@ -11013,7 +11212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>270</v>
       </c>
@@ -11051,7 +11250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>270</v>
       </c>
@@ -11101,7 +11300,7 @@
         <v>9150</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>290</v>
       </c>
@@ -11142,7 +11341,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>290</v>
       </c>
@@ -11186,7 +11385,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>290</v>
       </c>
@@ -11236,7 +11435,7 @@
         <v>161600</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>290</v>
       </c>
@@ -11274,7 +11473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>290</v>
       </c>
@@ -11321,7 +11520,7 @@
         <v>614600</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>290</v>
       </c>
@@ -11371,7 +11570,7 @@
         <v>286730</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>290</v>
       </c>
@@ -11409,7 +11608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>290</v>
       </c>
@@ -11450,7 +11649,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>307</v>
       </c>
@@ -11494,7 +11693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>307</v>
       </c>
@@ -11532,7 +11731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>307</v>
       </c>
@@ -11570,7 +11769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>307</v>
       </c>
@@ -11608,7 +11807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>307</v>
       </c>
@@ -11646,7 +11845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>307</v>
       </c>
@@ -11690,7 +11889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>307</v>
       </c>
@@ -11734,7 +11933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>307</v>
       </c>
@@ -11772,7 +11971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>307</v>
       </c>
@@ -11816,7 +12015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>307</v>
       </c>
@@ -11860,7 +12059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>307</v>
       </c>
@@ -11904,7 +12103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>331</v>
       </c>
@@ -11942,7 +12141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>331</v>
       </c>
@@ -11980,7 +12179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>331</v>
       </c>
@@ -12024,7 +12223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>339</v>
       </c>
@@ -12068,7 +12267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>339</v>
       </c>
@@ -12112,7 +12311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>346</v>
       </c>
@@ -12156,7 +12355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>346</v>
       </c>
@@ -12200,7 +12399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>346</v>
       </c>
@@ -12244,7 +12443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>346</v>
       </c>
@@ -12294,7 +12493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>359</v>
       </c>
@@ -12338,7 +12537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>363</v>
       </c>
@@ -12388,7 +12587,7 @@
         <v>187090</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>363</v>
       </c>
@@ -12435,7 +12634,7 @@
         <v>1088500</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>363</v>
       </c>
@@ -12486,7 +12685,7 @@
         <v>56940</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>363</v>
       </c>
@@ -12536,7 +12735,7 @@
         <v>326000</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>363</v>
       </c>
@@ -12571,7 +12770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>363</v>
       </c>
@@ -12606,7 +12805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>377</v>
       </c>
@@ -12641,7 +12840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>377</v>
       </c>
@@ -12688,7 +12887,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>377</v>
       </c>
@@ -12723,7 +12922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>377</v>
       </c>
@@ -12758,7 +12957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>377</v>
       </c>
@@ -12799,7 +12998,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>377</v>
       </c>
@@ -12837,7 +13036,7 @@
         <v>4978650</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>390</v>
       </c>
@@ -12887,7 +13086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>390</v>
       </c>
@@ -12937,7 +13136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>390</v>
       </c>
@@ -12987,7 +13186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>390</v>
       </c>
@@ -13016,7 +13215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>390</v>
       </c>
@@ -13066,7 +13265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>404</v>
       </c>
@@ -13107,7 +13306,7 @@
         <v>68500</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>404</v>
       </c>
@@ -13145,7 +13344,7 @@
         <v>1196500</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>404</v>
       </c>
@@ -13183,7 +13382,7 @@
         <v>279460</v>
       </c>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>404</v>
       </c>
@@ -13218,7 +13417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>414</v>
       </c>
@@ -13253,7 +13452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>416</v>
       </c>
@@ -13288,7 +13487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>418</v>
       </c>
@@ -13317,7 +13516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>420</v>
       </c>
@@ -13373,7 +13572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>420</v>
       </c>
@@ -13432,7 +13631,7 @@
         <v>9120</v>
       </c>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>420</v>
       </c>
@@ -13491,7 +13690,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>428</v>
       </c>
@@ -13538,7 +13737,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>428</v>
       </c>
@@ -13591,7 +13790,7 @@
         <v>708600</v>
       </c>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>428</v>
       </c>
@@ -13635,7 +13834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>428</v>
       </c>
@@ -13679,7 +13878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>428</v>
       </c>
@@ -13740,25 +13939,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="27" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="27" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="27" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="22"/>
       <c r="B1" s="23" t="s">
         <v>440</v>
@@ -13800,7 +13999,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
         <v>447</v>
       </c>
@@ -13849,7 +14048,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="48"/>
       <c r="B3" t="s">
         <v>534</v>
@@ -13896,7 +14095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48"/>
       <c r="B4" s="2" t="s">
         <v>535</v>
@@ -13939,7 +14138,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="49"/>
       <c r="B5" s="3" t="s">
         <v>544</v>
@@ -13986,7 +14185,7 @@
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>448</v>
       </c>
@@ -14037,7 +14236,7 @@
         <v>0.78571428571428592</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="48"/>
       <c r="B7" t="s">
         <v>445</v>
@@ -14086,7 +14285,7 @@
         <v>0.78571428571428592</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="48"/>
       <c r="B8" t="s">
         <v>446</v>
@@ -14135,7 +14334,7 @@
         <v>0.78571428571428581</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="48"/>
       <c r="B9" t="s">
         <v>481</v>
@@ -14184,7 +14383,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="49"/>
       <c r="B10" s="3" t="s">
         <v>482</v>
@@ -14233,7 +14432,7 @@
         <v>0.20000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>449</v>
       </c>
@@ -14282,7 +14481,7 @@
         <v>5.5555555555555608E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="48"/>
       <c r="B12" t="s">
         <v>540</v>
@@ -14329,7 +14528,7 @@
         <v>5.5555555555555608E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="48"/>
       <c r="B13" t="s">
         <v>541</v>
@@ -14376,7 +14575,7 @@
         <v>9.5541401273885287E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="49"/>
       <c r="B14" s="3" t="s">
         <v>542</v>
@@ -14426,7 +14625,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
         <v>450</v>
       </c>
@@ -14477,7 +14676,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="48"/>
       <c r="B16" t="s">
         <v>530</v>
@@ -14526,7 +14725,7 @@
         <v>0.20000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="48"/>
       <c r="B17" t="s">
         <v>531</v>
@@ -14575,7 +14774,7 @@
         <v>0.19999999999999987</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="48"/>
       <c r="B18" t="s">
         <v>532</v>
@@ -14624,7 +14823,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="49"/>
       <c r="B19" s="3" t="s">
         <v>533</v>
@@ -14673,7 +14872,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="50" t="s">
         <v>451</v>
       </c>
@@ -14725,7 +14924,7 @@
       </c>
       <c r="P20" s="15"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="51"/>
       <c r="B21" t="s">
         <v>525</v>
@@ -14775,7 +14974,7 @@
       </c>
       <c r="P21" s="15"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="51"/>
       <c r="B22" t="s">
         <v>526</v>
@@ -14825,7 +15024,7 @@
       </c>
       <c r="P22" s="15"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="51"/>
       <c r="B23" t="s">
         <v>527</v>
@@ -14875,7 +15074,7 @@
       </c>
       <c r="P23" s="15"/>
     </row>
-    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="51"/>
       <c r="B24" s="2" t="s">
         <v>528</v>
@@ -14925,7 +15124,7 @@
       </c>
       <c r="P24" s="15"/>
     </row>
-    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="52"/>
       <c r="B25" s="3" t="s">
         <v>552</v>
@@ -14974,7 +15173,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
         <v>452</v>
       </c>
@@ -15025,7 +15224,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="49"/>
       <c r="B27" s="3" t="s">
         <v>523</v>
@@ -15074,7 +15273,7 @@
         <v>0.1999999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>479</v>
       </c>
@@ -15125,7 +15324,7 @@
         <v>0.20000000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="48"/>
       <c r="B29" t="s">
         <v>522</v>
@@ -15166,7 +15365,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A30" s="48"/>
       <c r="B30" t="s">
         <v>477</v>
@@ -15215,7 +15414,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="3" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A31" s="49"/>
       <c r="B31" s="3" t="s">
         <v>478</v>
@@ -15264,7 +15463,7 @@
         <v>0.1999999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>480</v>
       </c>
@@ -15313,7 +15512,7 @@
         <v>0.33333333333333348</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="47" t="s">
         <v>500</v>
       </c>
@@ -15364,7 +15563,7 @@
         <v>0.19999999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="48"/>
       <c r="B34" t="s">
         <v>502</v>
@@ -15413,7 +15612,7 @@
         <v>0.1999999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="48"/>
       <c r="B35" t="s">
         <v>503</v>
@@ -15462,7 +15661,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="48"/>
       <c r="B36" s="3" t="s">
         <v>504</v>
@@ -15511,7 +15710,7 @@
         <v>0.19999999999999984</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
         <v>453</v>
       </c>
@@ -15556,7 +15755,7 @@
         <v>0.20000000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="48"/>
       <c r="B38" s="2" t="s">
         <v>506</v>
@@ -15597,7 +15796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="48"/>
       <c r="B39" s="2" t="s">
         <v>454</v>
@@ -15638,7 +15837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="48"/>
       <c r="B40" s="2" t="s">
         <v>455</v>
@@ -15679,7 +15878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="48"/>
       <c r="B41" s="2" t="s">
         <v>508</v>
@@ -15720,7 +15919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="48"/>
       <c r="B42" s="2" t="s">
         <v>456</v>
@@ -15769,7 +15968,7 @@
         <v>0.19999999999999987</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="48"/>
       <c r="B43" s="2" t="s">
         <v>457</v>
@@ -15810,7 +16009,7 @@
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="48"/>
       <c r="B44" s="2" t="s">
         <v>458</v>
@@ -15851,7 +16050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="48"/>
       <c r="B45" s="2" t="s">
         <v>459</v>
@@ -15900,7 +16099,7 @@
         <v>0.19999999999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="48"/>
       <c r="B46" s="2" t="s">
         <v>507</v>
@@ -15941,7 +16140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="48"/>
       <c r="B47" s="2" t="s">
         <v>460</v>
@@ -15990,7 +16189,7 @@
         <v>0.19999999999999993</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="48"/>
       <c r="B48" s="2" t="s">
         <v>461</v>
@@ -16039,7 +16238,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="48"/>
       <c r="B49" s="2" t="s">
         <v>462</v>
@@ -16080,7 +16279,7 @@
         <v>5.3333333333333378E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="48"/>
       <c r="B50" s="2" t="s">
         <v>463</v>
@@ -16121,7 +16320,7 @@
         <v>5.3333333333333378E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="48"/>
       <c r="B51" s="2" t="s">
         <v>464</v>
@@ -16162,7 +16361,7 @@
         <v>3.1746031746031772E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="48"/>
       <c r="B52" s="2" t="s">
         <v>517</v>
@@ -16209,7 +16408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="48"/>
       <c r="B53" s="2" t="s">
         <v>465</v>
@@ -16250,7 +16449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="48"/>
       <c r="B54" s="2" t="s">
         <v>466</v>
@@ -16291,7 +16490,7 @@
         <v>4.7058823529411806E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="48"/>
       <c r="B55" s="2" t="s">
         <v>467</v>
@@ -16332,7 +16531,7 @@
         <v>3.305785123966945E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="48"/>
       <c r="B56" s="2" t="s">
         <v>470</v>
@@ -16373,7 +16572,7 @@
         <v>3.0534351145038195E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="48"/>
       <c r="B57" s="2" t="s">
         <v>468</v>
@@ -16414,7 +16613,7 @@
         <v>6.6666666666666735E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="48"/>
       <c r="B58" s="2" t="s">
         <v>469</v>
@@ -16455,7 +16654,7 @@
         <v>0.3833333333333333</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="48"/>
       <c r="B59" s="2" t="s">
         <v>511</v>
@@ -16504,7 +16703,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="48"/>
       <c r="B60" s="2" t="s">
         <v>471</v>
@@ -16545,7 +16744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="48"/>
       <c r="B61" s="2" t="s">
         <v>472</v>
@@ -16586,7 +16785,7 @@
         <v>4.2499999999999899E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="48"/>
       <c r="B62" s="2" t="s">
         <v>473</v>
@@ -16627,7 +16826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="48"/>
       <c r="B63" s="2" t="s">
         <v>474</v>
@@ -16668,7 +16867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="48"/>
       <c r="B64" s="2" t="s">
         <v>509</v>
@@ -16709,7 +16908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="48"/>
       <c r="B65" s="2" t="s">
         <v>475</v>
@@ -16750,7 +16949,7 @@
         <v>0.32374999999999987</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="49"/>
       <c r="B66" s="3" t="s">
         <v>510</v>
@@ -16791,7 +16990,7 @@
         <v>0.32374999999999987</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="44" t="s">
         <v>553</v>
       </c>
@@ -16831,7 +17030,7 @@
         <v>0.14999999999999991</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="45"/>
       <c r="B68" s="37" t="s">
         <v>555</v>
@@ -16861,7 +17060,7 @@
         <v>0.98868599666425938</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="45"/>
       <c r="B69" s="37" t="s">
         <v>556</v>
@@ -16891,7 +17090,7 @@
         <v>0.98868599666425938</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="45"/>
       <c r="B70" s="37" t="s">
         <v>557</v>
@@ -16921,7 +17120,7 @@
         <v>0.98868599666425938</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="45"/>
       <c r="B71" s="37" t="s">
         <v>558</v>
@@ -16951,7 +17150,7 @@
         <v>0.98868599666425938</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="46"/>
       <c r="B72" s="39" t="s">
         <v>559</v>
